--- a/Spreadsheets/Cofactors/Phylloquinone.xlsx
+++ b/Spreadsheets/Cofactors/Phylloquinone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Roles" localSheetId="0">Sheet1!$A$1:$M$25</definedName>
+    <definedName name="Roles" localSheetId="0">Sheet1!$D$1:$Q$25</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Roles.tsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Phylloquinone_biosynthesis_in_plants:Roles.tsv">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:seaver:Documents:Papers:PlantSEED_v2.0:Repo:Spreadsheets:Subsystems:Phylloquinone_biosynthesis_in_plants:Roles.tsv">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <t>Role</t>
   </si>
@@ -227,16 +227,301 @@
   </si>
   <si>
     <t>AT1G30520</t>
+  </si>
+  <si>
+    <t>Consensus of location</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cofactor</t>
+  </si>
+  <si>
+    <t>b, r</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid, 1 result; PPDB: curated location plastid, targetP mito; Predotar: ER ans elsewhere; WolfPsort: plas: 8, E.R.: 2, cyto: 1, extr: 1, vacu: 1; Has signal peptide. Membrane protein with 8 loops across membrane.</t>
+  </si>
+  <si>
+    <t>PMID:17082184</t>
+  </si>
+  <si>
+    <t>PPDB: curated and targetP plastid; Predotar: plastid and elsewhere; WolfPsort: chlo: 10, vacu: 3; No signal peptide</t>
+  </si>
+  <si>
+    <t>d,v</t>
+  </si>
+  <si>
+    <t>PMID:22372525</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: cytosol; Predotar: elsewhere; WolfPsort: cyto: 12, nucl: 1; No signal peptide. Lit: GFP peroxisome [PMID:22372525]</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS peroxisome; PPDB: curated location peroxisome; Predotar: elsewhere; WolfPsort: cyto: 6, chlo: 4, nucl: 1.5, cysk_nucl: 1.5, plas: 1; No signal peptide;  Lit: GFP peroxisome [PMID:22372525]</t>
+  </si>
+  <si>
+    <t>PPDB: targetP: plastid; Predotar: elsewhere and plastid; WolfPsort:  chlo: 12, plas: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>c, d</t>
+  </si>
+  <si>
+    <t>PMID:16617180</t>
+  </si>
+  <si>
+    <t>SUBA: MS plastid, multiple results; PPDB: plastid, curated, in house experiments and targetP: Predotar: plastid; Wolfpsort: chlo: 12, cyto: 1; Has signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:9492312</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS mito; PPDB: curated and targetP mito; Predotar: mito and elsewhere; WolfPsort:  mito: 6, chlo: 5, vacu: 2; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:9349257</t>
+  </si>
+  <si>
+    <t>SUBA: GFP plastid; PPDB: targetP plastid; Predotar: plastid and elsewhere; WolfPsort: chlo: 13; Has signal peptide</t>
+  </si>
+  <si>
+    <t>c, r</t>
+  </si>
+  <si>
+    <t>SUBA: GFP cytosol and endoplasmic reticulum; MS plastid 1 result; PPDB: curated ER; Predotar: ER; WolfPsort:  chlo: 12, E.R.: 2; No signal peptide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:10759500 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> r</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBA: GFP cytosol and endoplasmic reticulum; PPDB: curated ER; Predotar: ER; WolfPsort: chlo: 11, E.R.: 2; Has signal peptide.</t>
+  </si>
+  <si>
+    <t>PPDB: targetP mito; Predotar: plastid; WolfPsort: chlo: 12, cyto: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: plastid; PPDB: targetP plastid; Predotar: plastid; WolfPsort: chlo: 10, mito: 4; Has signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: plastid; PPDB: curated and targetP plastid; Predotar: plastid; WolfPsort: chlo: 12, cyto: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: plastid; PPDB: targetP mito; Predotar: ER and elsewhere; WolfPsort: cyto: 6, chlo: 3, mito: 2, plas: 2; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:23729351</t>
+  </si>
+  <si>
+    <t>c, d, r</t>
+  </si>
+  <si>
+    <t>Probably a pseudogene</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: plastid; PPDB: targetP mito; Predotar and  WolfPsort: plastid; Has signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP: plastid; PPDB: targetP plastid; Predotar: plastid;  and  WolfPsort: chlo: 9, mito: 4.5, cyto_mito: 3; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: MS: plastid, multiple results; PPDB: curated, in house experiments and targetP plastid; Predotar: plastid and elsewhere;  and  WolfPsort:  chlo: 12, plas: 1; Has signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:25958235</t>
+  </si>
+  <si>
+    <t>Involved in monoterpene biosynthesis</t>
+  </si>
+  <si>
+    <t>SUBA: GFP plastid; PPDB: curated and targetP plastid; Predotar: plastid and elsewhere;  and  WolfPsort: chlo: 13; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:18451262</t>
+  </si>
+  <si>
+    <t>SUBA: GFP plastid; PPDB: curated and targetP plastid; Predotar: plastid and elsewhere;  and  WolfPsort: chlo: 10, mito: 4; No signal peptide</t>
+  </si>
+  <si>
+    <t>c, d, m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PMID:23956412</t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS peroxisome; PPDB: curated location plastid and peroxisome; Predotar: elsewhere; WolfPsort: cyto: 12, plas: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>SUBA: GFP peroxisome and plastid; PPDB: curated location plastid and peroxisome; Predotar: elsewhere and mito; WolfPsort: plas: 12, nucl: 1; No signal peptide</t>
+  </si>
+  <si>
+    <t>PMID:18208520</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>NADP, FAD</t>
+  </si>
+  <si>
+    <t>CONSIDERATIONS FOR TRANSPORTERS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>Phylloquinone is synthesized mainly in the chloroplast, but some of the reactions of this pathway occur in the peroxisome as well and there is one reaction that is exclusively located in the peroxisome.</t>
+  </si>
+  <si>
+    <t>(2E,6E)-farnesyl diphosphate and isopentyldiphosphate have to be inside the chloroplast to start the synthesis of phytyl diphosphate (all plastidial reactions)</t>
+  </si>
+  <si>
+    <t>Chorismate has to be inside the chloroplast to be processed into 2-succinylbenzoate (all plastidial reactions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 succinylbenzoate can then be processed further inside the chloroplast to make  1,4-dihydroxy-2-naphthoyl-CoA, or it can be transported into the peroxisome, where it can also be processed into 1,4-dihydroxy-2-naphthoyl-CoA</t>
+  </si>
+  <si>
+    <t>If 1,4-dihydroxy-2-naphthoyl-CoA is made in the plastid, it has to be transported into the peroxisome where it is converted into 1,4-dihydroxy-2-naphthoate.</t>
+  </si>
+  <si>
+    <t>1,4-dihydroxy-2-naphthoate is taken back to the plastid where it is finally converted into phylloquinol.</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>CoA, ATP</t>
+  </si>
+  <si>
+    <t>Metabolites needed inside the chloroplast:</t>
+  </si>
+  <si>
+    <t>Metabolites needed inside the peroxisome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADPH and FAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Oxoglutarate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenzyme A and ATP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosylmethionine </t>
+  </si>
+  <si>
+    <t>(2E,6E)-farnesyl diphosphate, isopentyldiphosphate, chorismate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,4-dihydroxy-2-naphthoyl-CoA</t>
+  </si>
+  <si>
+    <t>Plant needs to transport 1,4-dihydroxy-2-naphthoate out of peroxisome and into the plastid</t>
+  </si>
+  <si>
+    <t>Other transport considerations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiamine pyrophosphate </t>
+  </si>
+  <si>
+    <t>SUBA: GFP and MS: plastid; PPDB: curated, in house experiments and targetP plastid; Predotar: plastid; and  WolfPsort: chlo: 13; No signal peptide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -263,14 +548,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -600,495 +901,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="3" max="3" width="11" style="10"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="O6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="L7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="O9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
+      <c r="O11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="O12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="I14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="I15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="I16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="I17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="I19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="I20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="O21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
+      <c r="O22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
+      <c r="P23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+      <c r="L24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="P25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="10"/>
+      <c r="D37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="10"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+      <c r="D40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="10"/>
+      <c r="D41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="10"/>
+      <c r="D42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="10"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="10"/>
+      <c r="D45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="10"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="10"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="10"/>
+      <c r="D48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="10"/>
+      <c r="D49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="10"/>
+      <c r="D50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+      <c r="D51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="10"/>
+      <c r="D52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="10"/>
+      <c r="D53" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="10"/>
+      <c r="D54" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="10"/>
+      <c r="P55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
